--- a/ig/ch-vacd/StructureDefinition-ch-vacd-ext-verification-status.xlsx
+++ b/ig/ch-vacd/StructureDefinition-ch-vacd-ext-verification-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T09:46:13+00:00</t>
+    <t>2025-12-16T10:03:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension to define the verificationStatus on resources not defining this field like Immunization and Observation.&lt;br/&gt;Within the verificationStatus, a practitioner can verify the data added by a patient or related person.</t>
+    <t>Extension to define the verificationStatus on resources not defining this field like Immunization and Observation.  
+With the verificationStatus, practitioners can express that they verified the data added by a patient or related person.</t>
   </si>
   <si>
     <t>Purpose</t>
